--- a/data/processed/__bbdd_revision__.xlsx
+++ b/data/processed/__bbdd_revision__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A70"/>
+  <dimension ref="A1:B574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,344 +436,4560 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Peso_VERDES_rolling_2</t>
+          <t>lags</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>corr</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>-286</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="n">
+        <v>-285</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="n">
+        <v>-284</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="n">
+        <v>-283</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6442269226162096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.7150610312495574</v>
+        <v>-282</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.1274910134450387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2168678433953947</v>
+        <v>-281</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.4074531430578831</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.324539976533932</v>
+        <v>-280</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.1933005698696159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2812267063725797</v>
+        <v>-279</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1929257460681175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6647227936870638</v>
+        <v>-278</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1855287347661619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7222074467172651</v>
+        <v>-277</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02165321069959465</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8325596062659345</v>
+        <v>-276</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.2848153273887792</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.89220908726924</v>
+        <v>-275</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1432482196575925</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.009181666226509925</v>
+        <v>-274</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.1244846281597709</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.6330695613414806</v>
+        <v>-273</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.5916210400028015</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.262971014002223</v>
+        <v>-272</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.5382235306526102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.6568776028758457</v>
+        <v>-271</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3773680998195582</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.7163908820833812</v>
+        <v>-270</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7082686647052583</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4644979453291811</v>
+        <v>-269</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5195880967239822</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9424538869299236</v>
+        <v>-268</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.314860727727504</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.6476607081449229</v>
+        <v>-267</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.05237880814865988</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.01957486885837233</v>
+        <v>-266</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.1252481768883404</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5001839992624156</v>
+        <v>-265</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.203925431020698</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.5877244305101696</v>
+        <v>-264</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2031760033294827</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.73854734978137</v>
+        <v>-263</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2086764608226074</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.9415463167695987</v>
+        <v>-262</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.177981553388778</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.9301597473085226</v>
+        <v>-261</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.187079707523162</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.6840918995526932</v>
+        <v>-260</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2910793470767535</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5909288990650866</v>
+        <v>-259</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3142146221432231</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9988382291253682</v>
+        <v>-258</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2135966817730392</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8701064476613704</v>
+        <v>-257</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.02951073190669302</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.07822895776014097</v>
+        <v>-256</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.07345680656035639</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.02706652730508698</v>
+        <v>-255</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.1464786169605205</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5136692506222867</v>
+        <v>-254</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.1228160451558507</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.7208685198537421</v>
+        <v>-253</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.04242815211297848</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.4516795182323968</v>
+        <v>-252</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.09888620324582464</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7641151682803943</v>
+        <v>-251</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.317461706689303</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9746005801036784</v>
+        <v>-250</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.5251313395439523</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6388329026364798</v>
+        <v>-249</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.5277229358374719</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.8605210424925988</v>
+        <v>-248</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.4764014865090752</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.8843166592685604</v>
+        <v>-247</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.5324291359257458</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.6389318321772233</v>
+        <v>-246</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.6107939851921901</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.5101918758115778</v>
+        <v>-245</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.6367516829754383</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.1898897146189442</v>
+        <v>-244</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.6426948889078488</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.5840396765365188</v>
+        <v>-243</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.6535237271656599</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9506629797080919</v>
+        <v>-242</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.6504863611877197</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9249173710860797</v>
+        <v>-241</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.5780572468937816</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.933319933902383</v>
+        <v>-240</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.5421421202300838</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.2770287864150244</v>
+        <v>-239</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.4706561604431596</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.7677801736035647</v>
+        <v>-238</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.3638501701207104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8801052806076773</v>
+        <v>-237</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.2723517549278808</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.9799918409239675</v>
+        <v>-236</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.250333577458317</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.9986666752991077</v>
+        <v>-235</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.2368011490662978</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.9952755561693315</v>
+        <v>-234</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.1620828123072552</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.9913955822065534</v>
+        <v>-233</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.04400557916126223</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.9081236066992766</v>
+        <v>-232</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.02482973559332006</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.07677993270681814</v>
+        <v>-231</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.03901378413715367</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.179264342323426</v>
+        <v>-230</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.05610039090984117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.03325812604319325</v>
+        <v>-229</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.05890466316696642</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.1017032964963773</v>
+        <v>-228</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1037342886542244</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8091973122170717</v>
+        <v>-227</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.2381406731006455</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8893811596368254</v>
+        <v>-226</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.3326084107995881</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.695651219479233</v>
+        <v>-225</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.36079053777854</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.94505638046525</v>
+        <v>-224</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.3694907360405354</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9445638560308739</v>
+        <v>-223</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.3759287098942833</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9131468974958</v>
+        <v>-222</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4225865606120341</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9243833102088973</v>
+        <v>-221</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5218715329524363</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.3631129303128093</v>
+        <v>-220</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.6227138720893121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.271077961130869</v>
+        <v>-219</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.6198303463542608</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
+      <c r="A70" t="n">
+        <v>-218</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5222169674270599</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-217</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.472444519602907</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-216</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5046019434362855</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>-215</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.4786707046443665</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-214</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.3372774595073185</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>-213</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.246011428358768</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-212</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.2700608826796154</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>-211</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.2458010744791814</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-210</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.1480635521652499</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>-209</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.06752455103823794</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-208</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.01800224104956056</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-207</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.008928460411818585</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>-206</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.02594303875890734</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>-205</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.002226571897927002</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>-204</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.01974475496709161</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>-203</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.06823557719577468</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-202</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.1578024122301751</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>-201</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.152984515608432</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>-200</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.1551464838951293</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>-199</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.2630167949666395</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>-198</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.3395941810959842</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-197</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.3234680910636048</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>-196</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.3291142557381433</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>-195</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.3741048749607872</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>-194</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.3969567087526397</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>-193</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.3848823835818537</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>-192</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.4041878749742455</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>-191</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.4195220689022183</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>-190</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.3778605535059864</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>-189</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.3475707753133298</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>-188</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.3449550127720825</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>-187</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.3273397937990978</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-186</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.2663881316166248</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>-185</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.2400454563555831</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>-184</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.2677093323549002</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>-183</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.2142553580425067</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>-182</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.1206426943822763</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>-181</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.08236837226807685</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>-180</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.02793947158910846</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>-179</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.04428792119857293</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>-178</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.04936961558108075</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>-177</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.005658102684878373</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>-176</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.003957144244185654</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>-175</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.05115743280537283</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>-174</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.04732170473418276</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>-173</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.04834689127129365</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>-172</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.06539135730968292</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>-171</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.03932731191342469</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>-170</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.03540146617291843</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>-169</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.0180768692571562</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>-168</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.02673170978205776</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>-167</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.111660665100405</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>-166</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.1786128640803396</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>-165</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.201331211686235</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>-164</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.1968876725506056</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>-163</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.1722820285496239</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>-162</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.1544658259910271</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>-161</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.193393412633533</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>-160</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.2054323835598605</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>-159</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.08438091144795357</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>-158</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.0216764109707632</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>-157</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.02462533785315017</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>-156</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-0.01418533269359137</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>-155</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.03065889719418997</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>-154</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.08653538694235116</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>-153</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.146412585497059</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>-152</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.1728744948103773</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>-151</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.1879951765412947</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>-150</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.1991795869759223</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>-149</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.1944367477449197</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>-148</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.179221648126944</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>-147</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-0.1608789265317885</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>-146</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-0.1494247940640789</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>-145</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-0.1403881987985869</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>-144</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-0.1672097971352336</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>-143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.223035084501796</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>-142</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.214400593470674</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>-141</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.145647345183836</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>-140</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-0.07187380268395913</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>-139</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-0.05205802141985687</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>-138</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-0.07425737148428101</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>-137</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.04539281451009039</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>-136</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.01851122009757638</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>-135</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.038188078886209</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>-134</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.01763808819859968</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>-133</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.06274385548527907</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>-132</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.128125191516991</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>-131</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.09179920578952461</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>-130</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.09167646490816868</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>-129</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.2226987346184963</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>-128</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.2488035515388568</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>-127</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.1540897311266986</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>-126</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.09181203129355409</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>-125</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.08805619998684748</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>-124</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.1134595661738532</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>-123</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.1212400116289978</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>-122</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.1679194950505651</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>-121</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.2347583642913486</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>-120</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.2402430455336524</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>-119</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.1653694825235534</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>-118</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.1119557239264447</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>-117</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.189242950551783</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>-116</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.2285639103480825</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>-115</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.190992006273119</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>-114</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.2188118191436558</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>-113</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.22115097282224</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>-112</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.1652161186969107</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>-111</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.1490834538400405</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>-110</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.1608652435495475</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>-109</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.1242798161760749</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>-108</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.06507284924965046</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>-107</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.05541082846690693</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>-106</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.05095626109169223</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>-105</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.03569314272745499</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>-104</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.00456091735865594</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>-103</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.0248850823039987</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>-102</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.003933358370324257</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>-101</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.01588235761300829</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>-100</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-0.01901566905583721</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>-99</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.05109269637213425</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>-98</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-0.05141832449926273</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>-97</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.04371593464127677</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>-96</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-0.05781564114191157</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>-95</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-0.09418444066586662</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>-94</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-0.1595294642103209</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>-93</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-0.1750550034837051</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>-92</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-0.1441350596425896</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>-91</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-0.1690610584240359</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>-90</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-0.2056080627319251</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>-89</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-0.1805197760510639</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>-88</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.1137463022186827</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>-87</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.04416258488125407</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>-86</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-0.009632453728312455</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>-85</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-0.03457669891523326</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>-84</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-0.07279999192157258</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>-83</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-0.07429667184944089</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>-82</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-0.06480841598838152</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>-81</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.04829688420648492</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>-80</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.02196683750843006</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>-79</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-0.01649752059362313</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>-78</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-0.02073488860896718</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>-77</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.01198079032573964</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>-76</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-0.01970934099416132</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>-75</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.02429563041217114</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>-74</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.01500724832566449</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>-73</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.009192910223776387</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>-72</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-0.03571248615607239</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>-71</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-0.02694213334874643</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>-70</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.0004761120094818963</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>-69</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.0157505393716367</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>-68</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.03542881262295276</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>-67</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.05033518426883094</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>-66</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.02981744068015744</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>-65</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.02035893625999051</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>-64</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.07651879867814637</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>-63</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.1417031731980053</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>-62</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.1758519377222179</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>-61</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.163014989081567</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>-60</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.113837600429943</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>-59</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.0939438204773847</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>-58</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.1095280905461223</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>-57</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.1586905875081693</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>-56</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.1979093866979763</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>-55</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.1572663072064288</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>-54</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.09932578299277434</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>-53</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.09330535725837272</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>-52</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.1178876146033167</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>-51</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.1161463086957106</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>-50</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.07820622640871491</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>-49</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.04400401859833591</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>-48</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.03047084376342519</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>-47</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-0.002736682740861732</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>-46</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-0.0520765179175714</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>-45</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-0.08571131587866047</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>-44</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-0.1164725320108669</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>-43</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.1293158782156195</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>-42</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-0.1256976359579646</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>-41</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-0.1165815334085162</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>-40</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-0.1057942177347262</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>-39</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-0.1116643056834244</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>-38</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-0.1232457073991328</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>-37</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-0.1496740659751605</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>-36</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-0.1733492914370343</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>-35</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-0.2120849586104493</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>-34</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-0.2543164130009133</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>-33</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-0.2349162109756712</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>-32</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-0.1946989192505247</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>-31</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-0.1804400922885523</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>-30</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-0.2067844780160523</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>-29</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-0.2387075247359705</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>-28</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-0.1956303290338946</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>-27</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-0.1194081497269748</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>-26</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-0.09092770400969312</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>-25</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-0.07355933326723763</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>-24</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-0.0475729865774662</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>-23</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-0.03400450021580693</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>-22</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-0.04452561927641722</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>-21</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-0.04529502920297748</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>-20</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-0.0199677068090431</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>-19</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-0.01004900128757925</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>-18</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.005919171504812457</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>-17</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.05564906600285126</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>-16</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.09767898511386999</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>-15</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.1106360232305287</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>-14</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.1150379184337805</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>-13</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.1109646809244623</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>-12</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.1172975578288932</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>-11</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.1437428061965192</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>-10</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.1463809111513535</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>-9</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.1084479212811046</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>-8</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.1160730872330352</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.1601926949819433</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>-6</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.1320511085270407</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.106929648605803</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.1162391642719431</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.08235936013470659</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.05285350705346806</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.06036565187316602</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.09345280114974892</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.1415730827275442</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>2</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.1739344366609323</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>3</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.2039801343686806</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>4</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.2395687440858685</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>5</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.2017990331279609</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>6</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.08300289849894264</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>7</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.02786953467279333</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>8</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.0396265085886652</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>9</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.005950145719215718</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>10</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-0.04843314915821754</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>11</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-0.06211390521147576</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>12</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-0.05618647140870262</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>13</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-0.06828588109524997</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>14</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-0.09478235215528459</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>15</v>
+      </c>
+      <c r="B303" t="n">
+        <v>-0.1350941075957132</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>16</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-0.1574094506063047</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>17</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.1397862863155392</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>18</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-0.09720639093522807</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>19</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-0.04043516810411713</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>20</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-0.03750977898488134</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>21</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-0.05635241975155317</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>22</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.04215736475641912</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>23</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.05887786229550563</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>24</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.103323783108373</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>25</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-0.1206344058417498</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>26</v>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.08299956304081724</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>27</v>
+      </c>
+      <c r="B315" t="n">
+        <v>-0.04463924902206597</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>28</v>
+      </c>
+      <c r="B316" t="n">
+        <v>-0.04564672938387612</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>29</v>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.06904794630086054</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>30</v>
+      </c>
+      <c r="B318" t="n">
+        <v>-0.1143338498249642</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>31</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-0.1509231920985305</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>32</v>
+      </c>
+      <c r="B320" t="n">
+        <v>-0.1724991291108168</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>33</v>
+      </c>
+      <c r="B321" t="n">
+        <v>-0.1675150463963329</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>34</v>
+      </c>
+      <c r="B322" t="n">
+        <v>-0.09125709032878646</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>35</v>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.01901566214013794</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>36</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.01451227876259167</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>37</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.0395138054809798</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>38</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.02980535566483492</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>39</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.007848431185896584</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>40</v>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.01582803164005769</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>41</v>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.01020587092295954</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>42</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.0150613011093587</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>43</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.04030105130227666</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>44</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.06776346080101477</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>45</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.04728898195731195</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>46</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.02506001341165645</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>47</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.05445869781991855</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>48</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.1128613046059354</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>49</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.1475709751006917</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>50</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.1205619452368954</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>51</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.07868750363707956</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>52</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.08271446985301925</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>53</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.1308188970436475</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>54</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.1525687104782758</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>55</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.1417193349336529</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>56</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.1406103819836397</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>57</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.1216046934464929</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>58</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.07293339434286286</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>59</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.05064033887786418</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>60</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.06343946426636438</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>61</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.04268110715446761</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>62</v>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.0002612618245542817</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>63</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.02140126177051556</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>64</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.0585697039262519</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>65</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.02473380149794061</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>66</v>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.005761897143972117</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>67</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-0.002306691837953886</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>68</v>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.0130652813715277</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>69</v>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.05967648508656419</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>70</v>
+      </c>
+      <c r="B358" t="n">
+        <v>-0.105584024043034</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>71</v>
+      </c>
+      <c r="B359" t="n">
+        <v>-0.08198038365412788</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>72</v>
+      </c>
+      <c r="B360" t="n">
+        <v>-0.0602743190109845</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>73</v>
+      </c>
+      <c r="B361" t="n">
+        <v>-0.06280473314751353</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>74</v>
+      </c>
+      <c r="B362" t="n">
+        <v>-0.03855328727863568</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>75</v>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.0180884074482738</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>76</v>
+      </c>
+      <c r="B364" t="n">
+        <v>-0.03619424688037667</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>77</v>
+      </c>
+      <c r="B365" t="n">
+        <v>-0.09504533195252882</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>78</v>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.0718427242644665</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>79</v>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.01168655480184543</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>80</v>
+      </c>
+      <c r="B368" t="n">
+        <v>-0.01363842213643521</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>81</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.01389934832818369</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>82</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.02128990932276643</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>83</v>
+      </c>
+      <c r="B371" t="n">
+        <v>-0.00772249277200426</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>84</v>
+      </c>
+      <c r="B372" t="n">
+        <v>-3.19868361559919e-05</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>85</v>
+      </c>
+      <c r="B373" t="n">
+        <v>-0.0164498470361538</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>86</v>
+      </c>
+      <c r="B374" t="n">
+        <v>-0.05017227811722045</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>87</v>
+      </c>
+      <c r="B375" t="n">
+        <v>-0.07514597113071901</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>88</v>
+      </c>
+      <c r="B376" t="n">
+        <v>-0.1120481141887698</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>89</v>
+      </c>
+      <c r="B377" t="n">
+        <v>-0.08931916531416648</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>90</v>
+      </c>
+      <c r="B378" t="n">
+        <v>-0.01204592623334276</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>91</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.008986398062078918</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>92</v>
+      </c>
+      <c r="B380" t="n">
+        <v>-0.02014049968909676</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>93</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.02231723645661593</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>94</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.07903713475877906</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>95</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.09755011794909033</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>96</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.1425293539577289</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>97</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.1684623858670253</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>98</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0.1500194616745994</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>99</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0.1382200071452739</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>100</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0.1154938947950858</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>101</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0.08916243454105598</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>102</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.123249122751145</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>103</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.1707125116117272</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>104</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0.1190609141132448</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>105</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.04054826450861797</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>106</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.04718215385948295</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>107</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.1012053424682749</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>108</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.1330239121744521</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>109</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.1248890145757638</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>110</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.1625406635233617</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>111</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.1543908805455067</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>112</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.06110107143834604</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>113</v>
+      </c>
+      <c r="B401" t="n">
+        <v>-0.007611060402455457</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>114</v>
+      </c>
+      <c r="B402" t="n">
+        <v>-0.07323530305482984</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>115</v>
+      </c>
+      <c r="B403" t="n">
+        <v>-0.1136774061111257</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>116</v>
+      </c>
+      <c r="B404" t="n">
+        <v>-0.08510047963208883</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>117</v>
+      </c>
+      <c r="B405" t="n">
+        <v>-0.01615719545694073</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>118</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.01158036267720701</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>119</v>
+      </c>
+      <c r="B407" t="n">
+        <v>-0.02746194975083275</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>120</v>
+      </c>
+      <c r="B408" t="n">
+        <v>-0.07368073052265273</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>121</v>
+      </c>
+      <c r="B409" t="n">
+        <v>-0.106395172575418</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>122</v>
+      </c>
+      <c r="B410" t="n">
+        <v>-0.1698314726109657</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>123</v>
+      </c>
+      <c r="B411" t="n">
+        <v>-0.2410238185169794</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>124</v>
+      </c>
+      <c r="B412" t="n">
+        <v>-0.2737358227867143</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>125</v>
+      </c>
+      <c r="B413" t="n">
+        <v>-0.2852020101844117</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>126</v>
+      </c>
+      <c r="B414" t="n">
+        <v>-0.2678686663043768</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>127</v>
+      </c>
+      <c r="B415" t="n">
+        <v>-0.2108954710506245</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>128</v>
+      </c>
+      <c r="B416" t="n">
+        <v>-0.2007398905384535</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>129</v>
+      </c>
+      <c r="B417" t="n">
+        <v>-0.2729289815777414</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>130</v>
+      </c>
+      <c r="B418" t="n">
+        <v>-0.3081415446287507</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>131</v>
+      </c>
+      <c r="B419" t="n">
+        <v>-0.3043642111707749</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>132</v>
+      </c>
+      <c r="B420" t="n">
+        <v>-0.3066697828347075</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>133</v>
+      </c>
+      <c r="B421" t="n">
+        <v>-0.2883345108665004</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>134</v>
+      </c>
+      <c r="B422" t="n">
+        <v>-0.2950566750053917</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>135</v>
+      </c>
+      <c r="B423" t="n">
+        <v>-0.3139372484047018</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>136</v>
+      </c>
+      <c r="B424" t="n">
+        <v>-0.2842003695790657</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>137</v>
+      </c>
+      <c r="B425" t="n">
+        <v>-0.2444198991771735</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>138</v>
+      </c>
+      <c r="B426" t="n">
+        <v>-0.2163991333323753</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>139</v>
+      </c>
+      <c r="B427" t="n">
+        <v>-0.1814055337829246</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>140</v>
+      </c>
+      <c r="B428" t="n">
+        <v>-0.125549068537499</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>141</v>
+      </c>
+      <c r="B429" t="n">
+        <v>-0.05497075484338673</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>142</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.01717461601123809</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>143</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.06532290989353004</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>144</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.06312479297039918</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>145</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0.06094871340227701</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>146</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0.07859676720698412</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>147</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0.06389653719623642</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>148</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0.03836690619828687</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>149</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0.06012550862387176</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>150</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0.1062769768148447</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>151</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0.1651052522320176</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>152</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0.2836067677733933</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>153</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0.3852876677208896</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>154</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.3963395349559523</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>155</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0.389780050246078</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>156</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.434546582351488</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>157</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0.4692789163883443</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>158</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0.4300797234288978</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>159</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0.3522947735958596</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>160</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0.2689830331544991</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>161</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0.1618907297737362</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>162</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0.1106386521694708</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>163</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0.1578814624699332</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>164</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0.1539532253477968</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>165</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0.1111489099166404</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>166</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0.03985143415402804</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>167</v>
+      </c>
+      <c r="B455" t="n">
+        <v>-0.04318793836720874</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>168</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.006140460210713237</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>169</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0.07130236036910115</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>170</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.007142397276933336</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>171</v>
+      </c>
+      <c r="B459" t="n">
+        <v>-0.1108252209196001</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>172</v>
+      </c>
+      <c r="B460" t="n">
+        <v>-0.2257430014445108</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>173</v>
+      </c>
+      <c r="B461" t="n">
+        <v>-0.2930564042685562</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>174</v>
+      </c>
+      <c r="B462" t="n">
+        <v>-0.3234273234705112</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>175</v>
+      </c>
+      <c r="B463" t="n">
+        <v>-0.4024982003106498</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>176</v>
+      </c>
+      <c r="B464" t="n">
+        <v>-0.4485513649965345</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>177</v>
+      </c>
+      <c r="B465" t="n">
+        <v>-0.4258013064008268</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>178</v>
+      </c>
+      <c r="B466" t="n">
+        <v>-0.4381567971927757</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>179</v>
+      </c>
+      <c r="B467" t="n">
+        <v>-0.4432627255332931</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>180</v>
+      </c>
+      <c r="B468" t="n">
+        <v>-0.4300722129653503</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>181</v>
+      </c>
+      <c r="B469" t="n">
+        <v>-0.4859156570128999</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>182</v>
+      </c>
+      <c r="B470" t="n">
+        <v>-0.5282612815882461</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>183</v>
+      </c>
+      <c r="B471" t="n">
+        <v>-0.4881995798093271</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>184</v>
+      </c>
+      <c r="B472" t="n">
+        <v>-0.4093195536401211</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>185</v>
+      </c>
+      <c r="B473" t="n">
+        <v>-0.3246024429429803</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>186</v>
+      </c>
+      <c r="B474" t="n">
+        <v>-0.2763598962730142</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>187</v>
+      </c>
+      <c r="B475" t="n">
+        <v>-0.2366464957755387</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>188</v>
+      </c>
+      <c r="B476" t="n">
+        <v>-0.1638443832001531</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>189</v>
+      </c>
+      <c r="B477" t="n">
+        <v>-0.08436863648331534</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>190</v>
+      </c>
+      <c r="B478" t="n">
+        <v>-0.004168976903379757</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>191</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0.06690587975471629</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>192</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0.08107230687942868</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>193</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0.07907572660865142</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>194</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0.1332517060864996</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>195</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0.1844802883708624</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>196</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0.2393428041834657</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>197</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0.2334889549714884</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>198</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0.1969157752747253</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>199</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0.3647393305330403</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>200</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0.4852365481348221</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>201</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0.3772138434204826</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>202</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0.397723498822582</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>203</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0.4427775586198044</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>204</v>
+      </c>
+      <c r="B492" t="n">
+        <v>0.3618073716023251</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>205</v>
+      </c>
+      <c r="B493" t="n">
+        <v>0.373558419878783</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>206</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0.4193493092762261</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>207</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0.4207442512921273</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>208</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0.4030311231253166</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>209</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0.3280428695246719</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>210</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0.2156545511235301</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>211</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0.271944784636324</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>212</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0.397894318019347</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>213</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0.3279510494002853</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>214</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0.1817451024680476</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>215</v>
+      </c>
+      <c r="B503" t="n">
+        <v>0.09481067056609933</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>216</v>
+      </c>
+      <c r="B504" t="n">
+        <v>0.04586281930695196</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>217</v>
+      </c>
+      <c r="B505" t="n">
+        <v>0.1129825117315472</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>218</v>
+      </c>
+      <c r="B506" t="n">
+        <v>0.1569078009887389</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>219</v>
+      </c>
+      <c r="B507" t="n">
+        <v>-0.02420525078582905</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>220</v>
+      </c>
+      <c r="B508" t="n">
+        <v>-0.227205689602967</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>221</v>
+      </c>
+      <c r="B509" t="n">
+        <v>-0.2720638109992226</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>222</v>
+      </c>
+      <c r="B510" t="n">
+        <v>-0.262136455320765</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>223</v>
+      </c>
+      <c r="B511" t="n">
+        <v>-0.2907375809081975</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>224</v>
+      </c>
+      <c r="B512" t="n">
+        <v>-0.2846891917713519</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>225</v>
+      </c>
+      <c r="B513" t="n">
+        <v>-0.2911498808346133</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>226</v>
+      </c>
+      <c r="B514" t="n">
+        <v>-0.348322934448782</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>227</v>
+      </c>
+      <c r="B515" t="n">
+        <v>-0.4135921732508389</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>228</v>
+      </c>
+      <c r="B516" t="n">
+        <v>-0.4163804943802961</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>229</v>
+      </c>
+      <c r="B517" t="n">
+        <v>-0.3201117241500183</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>230</v>
+      </c>
+      <c r="B518" t="n">
+        <v>-0.2315978201924856</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>231</v>
+      </c>
+      <c r="B519" t="n">
+        <v>-0.1271207050643129</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>232</v>
+      </c>
+      <c r="B520" t="n">
+        <v>-0.09487670876042729</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>233</v>
+      </c>
+      <c r="B521" t="n">
+        <v>-0.1106965545926067</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>234</v>
+      </c>
+      <c r="B522" t="n">
+        <v>-0.05054081230612363</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>235</v>
+      </c>
+      <c r="B523" t="n">
+        <v>-0.146822404762941</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>236</v>
+      </c>
+      <c r="B524" t="n">
+        <v>-0.3627956900842154</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>237</v>
+      </c>
+      <c r="B525" t="n">
+        <v>-0.3298118314779022</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>238</v>
+      </c>
+      <c r="B526" t="n">
+        <v>-0.1542106958091474</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>239</v>
+      </c>
+      <c r="B527" t="n">
+        <v>-0.1817309567308857</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>240</v>
+      </c>
+      <c r="B528" t="n">
+        <v>-0.2393230178567777</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>241</v>
+      </c>
+      <c r="B529" t="n">
+        <v>-0.03870147616865316</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>242</v>
+      </c>
+      <c r="B530" t="n">
+        <v>-0.1067307795633761</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>243</v>
+      </c>
+      <c r="B531" t="n">
+        <v>-0.2335683838987647</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>244</v>
+      </c>
+      <c r="B532" t="n">
+        <v>0.058770646662957</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>245</v>
+      </c>
+      <c r="B533" t="n">
+        <v>0.0771385606167609</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>246</v>
+      </c>
+      <c r="B534" t="n">
+        <v>0.008929609540060494</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>247</v>
+      </c>
+      <c r="B535" t="n">
+        <v>0.1112502398839249</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>248</v>
+      </c>
+      <c r="B536" t="n">
+        <v>0.02575428340924575</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>249</v>
+      </c>
+      <c r="B537" t="n">
+        <v>0.1882384940146967</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>250</v>
+      </c>
+      <c r="B538" t="n">
+        <v>0.3453439260031502</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>251</v>
+      </c>
+      <c r="B539" t="n">
+        <v>0.1079412749666711</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>252</v>
+      </c>
+      <c r="B540" t="n">
+        <v>0.004892205634814628</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>253</v>
+      </c>
+      <c r="B541" t="n">
+        <v>-0.02121332745771888</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>254</v>
+      </c>
+      <c r="B542" t="n">
+        <v>-0.1006745407941379</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>255</v>
+      </c>
+      <c r="B543" t="n">
+        <v>-0.2065887246879064</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>256</v>
+      </c>
+      <c r="B544" t="n">
+        <v>-0.5352342562545813</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>257</v>
+      </c>
+      <c r="B545" t="n">
+        <v>-0.650736158879085</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>258</v>
+      </c>
+      <c r="B546" t="n">
+        <v>-0.107331462559201</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>259</v>
+      </c>
+      <c r="B547" t="n">
+        <v>0.1804400438244429</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>260</v>
+      </c>
+      <c r="B548" t="n">
+        <v>0.3179867849332094</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>261</v>
+      </c>
+      <c r="B549" t="n">
+        <v>0.7985548884139241</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>262</v>
+      </c>
+      <c r="B550" t="n">
+        <v>0.7448829073057404</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>263</v>
+      </c>
+      <c r="B551" t="n">
+        <v>0.1821522672899529</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>264</v>
+      </c>
+      <c r="B552" t="n">
+        <v>-0.4135754127165947</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>265</v>
+      </c>
+      <c r="B553" t="n">
+        <v>-0.5718570476336791</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>266</v>
+      </c>
+      <c r="B554" t="n">
+        <v>0.5381109223035243</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>267</v>
+      </c>
+      <c r="B555" t="n">
+        <v>0.9011585742448608</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>268</v>
+      </c>
+      <c r="B556" t="n">
+        <v>-0.8140419101344651</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>269</v>
+      </c>
+      <c r="B557" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>270</v>
+      </c>
+      <c r="B558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>271</v>
+      </c>
+      <c r="B559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>272</v>
+      </c>
+      <c r="B560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>273</v>
+      </c>
+      <c r="B561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>274</v>
+      </c>
+      <c r="B562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>275</v>
+      </c>
+      <c r="B563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>276</v>
+      </c>
+      <c r="B564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>277</v>
+      </c>
+      <c r="B565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>278</v>
+      </c>
+      <c r="B566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>279</v>
+      </c>
+      <c r="B567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>280</v>
+      </c>
+      <c r="B568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>281</v>
+      </c>
+      <c r="B569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>282</v>
+      </c>
+      <c r="B570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>283</v>
+      </c>
+      <c r="B571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>284</v>
+      </c>
+      <c r="B572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>285</v>
+      </c>
+      <c r="B573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>286</v>
+      </c>
+      <c r="B574" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/processed/__bbdd_revision__.xlsx
+++ b/data/processed/__bbdd_revision__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,1211 +447,1161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-77</v>
+        <v>-78</v>
       </c>
       <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-76</v>
+        <v>-77</v>
       </c>
       <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-75</v>
+        <v>-76</v>
       </c>
       <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-74</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
+        <v>-75</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-73</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
+        <v>-74</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6632461082875518</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-72</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
+        <v>-73</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4545873339752911</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-71</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
+        <v>-72</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.4649288350087041</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-70</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
+        <v>-71</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2347775702094984</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-69</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>-70</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3234475880619714</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-68</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
+        <v>-69</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.5605688338858337</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-67</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
+        <v>-68</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.7547380283998077</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-66</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
+        <v>-67</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.7435552582372346</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-65</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
+        <v>-66</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.623361977472936</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-64</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
+        <v>-65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.1178695199947107</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-63</v>
+        <v>-64</v>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>0.2210438266635567</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-62</v>
+        <v>-63</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9965194585555386</v>
+        <v>0.3293046856224935</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-61</v>
+        <v>-62</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05630101696070118</v>
+        <v>0.3931953510205267</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-60</v>
+        <v>-61</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.6394479233932236</v>
+        <v>0.474213572054626</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-59</v>
+        <v>-60</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.2323803535821534</v>
+        <v>0.5487675965088809</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-58</v>
+        <v>-59</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2557557748989207</v>
+        <v>0.4714961523714761</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-57</v>
+        <v>-58</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02384707306668852</v>
+        <v>0.4246507589663676</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-56</v>
+        <v>-57</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.4537483867272569</v>
+        <v>0.4502849726513561</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-55</v>
+        <v>-56</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.6354337288157427</v>
+        <v>0.467379516890912</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-54</v>
+        <v>-55</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.6646834660289521</v>
+        <v>0.5344270334568281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.3601455204013708</v>
+        <v>0.6338474272196917</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-52</v>
+        <v>-53</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01271340790355553</v>
+        <v>0.693375828158925</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-51</v>
+        <v>-52</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4090951241780136</v>
+        <v>0.6842169603240822</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-50</v>
+        <v>-51</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6563640648713536</v>
+        <v>0.6153467981280375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-49</v>
+        <v>-50</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7081436506737825</v>
+        <v>0.5009187042981065</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-48</v>
+        <v>-49</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5352570254381993</v>
+        <v>0.3344419666272356</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2309641121510352</v>
+        <v>0.02869414879172211</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-46</v>
+        <v>-47</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.04022620795890066</v>
+        <v>-0.2409785685743762</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-45</v>
+        <v>-46</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.392587586544286</v>
+        <v>-0.3546962087016898</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-44</v>
+        <v>-45</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.7647665538622036</v>
+        <v>-0.4408585236926957</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-43</v>
+        <v>-44</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.8901129384822326</v>
+        <v>-0.5514168785515164</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-42</v>
+        <v>-43</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.512361904643539</v>
+        <v>-0.564091864684831</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-41</v>
+        <v>-42</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06543612912438937</v>
+        <v>-0.4403745259640769</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-40</v>
+        <v>-41</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4368195062420533</v>
+        <v>-0.3230846167326413</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-39</v>
+        <v>-40</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6038240869932709</v>
+        <v>-0.3647802695786161</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-38</v>
+        <v>-39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5772714556725304</v>
+        <v>-0.4679697999598201</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-37</v>
+        <v>-38</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3117048991456139</v>
+        <v>-0.5214601125111213</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-36</v>
+        <v>-37</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02201029075448013</v>
+        <v>-0.5694076993213028</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-35</v>
+        <v>-36</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1961068655536679</v>
+        <v>-0.6135983226512491</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-34</v>
+        <v>-35</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.3083779228835897</v>
+        <v>-0.6492966071277868</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.317390016770293</v>
+        <v>-0.6775232599362455</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.08437268694945997</v>
+        <v>-0.6053239666793645</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1033114627132129</v>
+        <v>-0.4752846608333725</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1076335387824059</v>
+        <v>-0.3902623468287422</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="B50" t="n">
-        <v>0.006742515542708264</v>
+        <v>-0.3282054498712292</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.07247978386261551</v>
+        <v>-0.2517770534729627</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.04251798435997739</v>
+        <v>-0.2034072407463599</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1483313303391001</v>
+        <v>-0.2369642763953214</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.2600714014290654</v>
+        <v>-0.3292499246416601</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-24</v>
+        <v>-25</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.2386419237614972</v>
+        <v>-0.3716488115207648</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.03776414234858289</v>
+        <v>-0.26247226770388</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1986839451033739</v>
+        <v>-0.1522636298236751</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2593007719616391</v>
+        <v>-0.101894173921396</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1631213406078454</v>
+        <v>0.006626904001488689</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.05491875597036566</v>
+        <v>0.1470944195432036</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.2044938766275783</v>
+        <v>0.2883676060657558</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.1566482865918227</v>
+        <v>0.3442986830380232</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.0677384255182896</v>
+        <v>0.3257081657680305</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.02106899140913667</v>
+        <v>0.2223060648589475</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02825264650375735</v>
+        <v>-0.01320301337543878</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1473470654078396</v>
+        <v>-0.1177424585791964</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1587405710740258</v>
+        <v>-0.05305975882342395</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05122529774826914</v>
+        <v>-0.07551601647312083</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.07070853019602499</v>
+        <v>-0.2069856726455326</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.1310286543068125</v>
+        <v>-0.1895659500483094</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.1451823305477826</v>
+        <v>0.004998119451182955</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.1531381228027733</v>
+        <v>0.1835341502941804</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.09044138431548764</v>
+        <v>0.2267104922060754</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03819075792288155</v>
+        <v>0.1092392914452886</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2201496997166554</v>
+        <v>0.03956508288883281</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3406304083442929</v>
+        <v>0.02681086496207407</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3235147485025175</v>
+        <v>-0.04786099695006921</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2336568116829892</v>
+        <v>-0.1544660546986523</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1413896898487278</v>
+        <v>-0.2051380790457023</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>0.07322669050873308</v>
+        <v>-0.07143419516097507</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.02544795288716173</v>
+        <v>-0.03278297168179045</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.0917128970964608</v>
+        <v>-0.04064897199027876</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.1013092510265793</v>
+        <v>-0.04933184055225417</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.06538157740860914</v>
+        <v>-0.001037866307163976</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.001872899305816571</v>
+        <v>0.1105075605602919</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86" t="n">
-        <v>0.03881794914043378</v>
+        <v>0.07847799751831094</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" t="n">
-        <v>0.05054041708532574</v>
+        <v>-0.1167628613458715</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.005754031960588501</v>
+        <v>-0.3515804278933868</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.1004118118264678</v>
+        <v>-0.4312522584852024</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.1261906693955008</v>
+        <v>-0.4231248812404792</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.1512292153538703</v>
+        <v>-0.4551154316450325</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1761936073660217</v>
+        <v>-0.451912382668967</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.09604352668138584</v>
+        <v>-0.4102510889238786</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B94" t="n">
-        <v>0.05710746111306164</v>
+        <v>-0.04205621424237293</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1824419107188491</v>
+        <v>0.3795099497110903</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1719321910166808</v>
+        <v>0.6808580634897676</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0310620940983217</v>
+        <v>0.5964626614371963</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1073665554719497</v>
+        <v>0.3435127688051681</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1880889538831183</v>
+        <v>0.3315614955912586</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.2503396212407833</v>
+        <v>0.1798314934418681</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2668595694190214</v>
+        <v>-0.2095125734969742</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.1721917868313984</v>
+        <v>-0.5878242661292973</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B103" t="n">
-        <v>0.02554293021276803</v>
+        <v>-0.5901138687251006</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B104" t="n">
-        <v>0.20358819462163</v>
+        <v>-0.3115575307311446</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2841102756458394</v>
+        <v>-0.2051128856515244</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2576733513162338</v>
+        <v>-0.3135077664589391</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1550908951718246</v>
+        <v>-0.2310247245198551</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B108" t="n">
-        <v>0.06941223797589487</v>
+        <v>0.3744551635983541</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01801741468625561</v>
+        <v>0.8661699435544445</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.004965347392257375</v>
+        <v>0.1923593130798671</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08056751853881029</v>
+        <v>-0.6894840980067113</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3031772242905467</v>
+        <v>-0.9999999999999999</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>34</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.4801822014815791</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>35</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.5417427259600903</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>36</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.5768441748947188</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>37</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.5553535477790128</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>38</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.3859423047096365</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>39</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.1593097523631763</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>40</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.0004213948299516088</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>41</v>
-      </c>
-      <c r="B120" t="n">
-        <v>-0.04813505867473983</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>42</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.03565632321074005</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.2002716858201716</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>44</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.4093671713454665</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>45</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.5421337107417867</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>46</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.5084197906910354</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>47</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.3869508062994453</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>48</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.2440051606067799</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>49</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.08891512165545351</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>50</v>
-      </c>
-      <c r="B129" t="n">
-        <v>-0.1186536343918178</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>51</v>
-      </c>
-      <c r="B130" t="n">
-        <v>-0.3456731442884283</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>52</v>
-      </c>
-      <c r="B131" t="n">
-        <v>-0.3723282127403887</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>53</v>
-      </c>
-      <c r="B132" t="n">
-        <v>-0.2275895215427512</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>54</v>
-      </c>
-      <c r="B133" t="n">
-        <v>-0.06830504110028274</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>55</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.01227625266746554</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>56</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.006215692501812263</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>57</v>
-      </c>
-      <c r="B136" t="n">
-        <v>-0.07069591091572165</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>58</v>
-      </c>
-      <c r="B137" t="n">
-        <v>-0.2785327224248285</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>59</v>
-      </c>
-      <c r="B138" t="n">
-        <v>-0.6113191837410481</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>60</v>
-      </c>
-      <c r="B139" t="n">
-        <v>-0.8962709473881481</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>61</v>
-      </c>
-      <c r="B140" t="n">
-        <v>-0.9167725737746268</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>62</v>
-      </c>
-      <c r="B141" t="n">
-        <v>-0.785547706730315</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>63</v>
-      </c>
-      <c r="B142" t="n">
-        <v>-0.6333539173058211</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>64</v>
-      </c>
-      <c r="B143" t="n">
-        <v>-0.3719353546676122</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>65</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.04642442296142213</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>66</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.699725623488331</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>67</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.9083734951884492</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>68</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.7924799031151958</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>69</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.4887954815792697</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>70</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.08926843502368446</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>71</v>
-      </c>
-      <c r="B150" t="n">
-        <v>-0.358641245236403</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>72</v>
-      </c>
-      <c r="B151" t="n">
-        <v>-0.7219363736591977</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>73</v>
-      </c>
-      <c r="B152" t="n">
-        <v>-0.411604463374224</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>74</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.9739225081420757</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>75</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
+        <v>76</v>
+      </c>
+      <c r="B156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
         <v>77</v>
       </c>
-      <c r="B156" t="inlineStr"/>
+      <c r="B157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>78</v>
+      </c>
+      <c r="B158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
